--- a/Module2/Lab17/Task1_data.xlsx
+++ b/Module2/Lab17/Task1_data.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edgartome_1/IronHack/IronLabs/Module2/Lab17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFAD247-96F2-4FAD-ACA9-613DC9918CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9331B05A-4B88-3A43-88D7-840143F4ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Statistics" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$W$187</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="420">
   <si>
     <t>Iraq</t>
   </si>
@@ -1280,6 +1282,39 @@
       </rPr>
       <t xml:space="preserve">Create a bar chart that shows 10 countries with the lowest results in 2019. The chart should have the title, axes and data labels. Explain the chart </t>
     </r>
+  </si>
+  <si>
+    <t>Comments:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The values of Burundi are very low, and in 19 years only incressed 10 points, in the case of Eritrea it was biger values startin in 30, anda after 19 years it reach 50, with a much biger incress of 20 points. So we conclued that whit already some developed facor in eletrecity the country can incressa moore rapidly.  </t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function </t>
+  </si>
+  <si>
+    <t>Exponencial</t>
+  </si>
+  <si>
+    <t>y=b0 e ^b*x</t>
+  </si>
+  <si>
+    <t>y=b0X+b1</t>
+  </si>
+  <si>
+    <t>For the function the best two models are linear and exponencial. The linear have R^2 of 0,9322, and exponencial R^2 0,9753, that gives confience on the resuelt of the model for 93% and 97%. Necessary to check the model with new values</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1358,6 +1393,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,7 +1416,746 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Dynamics of the indicator for Eritrea and Bhutan for eletrecity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Eritrea</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ERI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Access to electricity (% of population)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000 [YR2000]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001 [YR2001]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002 [YR2002]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003 [YR2003]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004 [YR2004]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005 [YR2005]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006 [YR2006]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007 [YR2007]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008 [YR2008]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009 [YR2009]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010 [YR2010]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011 [YR2011]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012 [YR2012]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013 [YR2013]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014 [YR2014]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015 [YR2015]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016 [YR2016]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017 [YR2017]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018 [YR2018]</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019 [YR2019]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29.2042427062988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.301435470581101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.469783782958999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.538585662841797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.5957221984863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.643730163574197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.688686370849602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.736824035644503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.794387817382798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.867607116699197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.962718963622997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.084251403808601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.229896545410199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.395633697509801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.577445983886697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.771312713622997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.973213195800803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.1791381835938</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.385730743408203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AD0-714A-AAA1-DC8038E34698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Burundi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BDI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Access to electricity (% of population)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000 [YR2000]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001 [YR2001]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002 [YR2002]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003 [YR2003]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004 [YR2004]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005 [YR2005]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006 [YR2006]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007 [YR2007]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008 [YR2008]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009 [YR2009]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010 [YR2010]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011 [YR2011]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012 [YR2012]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013 [YR2013]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014 [YR2014]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015 [YR2015]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016 [YR2016]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017 [YR2017]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018 [YR2018]</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019 [YR2019]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.4396891593933101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8013172149658199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1546571254730198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4985325336456299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8317673206329301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2073170731707301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.77516794204712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4097371101379403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1069364547729501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4030895233154297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2517995834350604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.598614692688001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.0647974014282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AD0-714A-AAA1-DC8038E34698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="514145312"/>
+        <c:axId val="514146960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="514145312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514146960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514146960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Indicator</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514145312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1448,7 +2225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1510,7 +2287,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1696,7 +2473,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1734,7 +2511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38603824"/>
@@ -1816,7 +2593,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1848,7 +2625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38605072"/>
@@ -1896,7 +2673,781 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Dynamics of the indicator for Eritrea and Bhutan for eletrecity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Burundi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BDI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Access to electricity (% of population)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12884129431698935"/>
+                  <c:y val="-1.7473207022642732E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10367375894841153"/>
+                  <c:y val="-5.1249812429414229E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.58056943782190895"/>
+                  <c:y val="0.34269463639156811"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.346624225163344E-2"/>
+                  <c:y val="-1.579008247534475E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.4396891593933101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8013172149658199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1546571254730198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4985325336456299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8317673206329301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2073170731707301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.77516794204712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4097371101379403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1069364547729501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4030895233154297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2517995834350604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.598614692688001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.0647974014282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED36-6D45-94E9-5AF2CEEA5555}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="514145312"/>
+        <c:axId val="514146960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="514145312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514146960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="514146960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Indicator</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514145312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1947,7 +3498,603 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2450,7 +4597,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C7ABB3-061C-3C61-C7D2-23D0E66B87C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2475,6 +5179,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4FADB5-756D-914A-8350-2CF029297625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2801,16 +5548,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W187"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
@@ -2881,7 +5631,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -2952,7 +5702,7 @@
         <v>6.7205352783203098</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>331</v>
       </c>
@@ -3023,7 +5773,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -3094,7 +5844,7 @@
         <v>11.0647974014282</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -3165,7 +5915,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3236,7 +5986,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -3307,7 +6057,7 @@
         <v>18.379152297973601</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -3378,7 +6128,7 @@
         <v>18.774724960327099</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>262</v>
       </c>
@@ -3449,7 +6199,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>380</v>
       </c>
@@ -3520,7 +6270,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -3591,7 +6341,7 @@
         <v>26.907184600830099</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3662,7 +6412,7 @@
         <v>27.6492099761963</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3733,7 +6483,7 @@
         <v>29.616161346435501</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -3804,7 +6554,7 @@
         <v>31.040412902831999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>287</v>
       </c>
@@ -3875,7 +6625,7 @@
         <v>36.033195495605497</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>309</v>
       </c>
@@ -3946,7 +6696,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -4017,7 +6767,7 @@
         <v>37.782436370849602</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>340</v>
       </c>
@@ -4088,7 +6838,7 @@
         <v>40.318740844726598</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>395</v>
       </c>
@@ -4159,7 +6909,7 @@
         <v>41.089107513427699</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>375</v>
       </c>
@@ -4230,7 +6980,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>315</v>
       </c>
@@ -4301,7 +7051,7 @@
         <v>42.418388366699197</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4372,7 +7122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -4443,7 +7193,7 @@
         <v>44.640678405761697</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -4514,7 +7264,7 @@
         <v>48.021247863769503</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>388</v>
       </c>
@@ -4585,7 +7335,7 @@
         <v>50.385730743408203</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4656,7 +7406,7 @@
         <v>52.441097259521499</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -4727,7 +7477,7 @@
         <v>55.195117950439503</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -4798,7 +7548,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -4869,7 +7619,7 @@
         <v>59.921287536621101</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -4940,7 +7690,7 @@
         <v>61.275936126708999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>396</v>
       </c>
@@ -5011,7 +7761,7 @@
         <v>63.452312469482401</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -5082,7 +7832,7 @@
         <v>63.464511871337898</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>341</v>
       </c>
@@ -5153,7 +7903,7 @@
         <v>64.666236877441406</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>297</v>
       </c>
@@ -5224,7 +7974,7 @@
         <v>68.532188415527301</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>371</v>
       </c>
@@ -5295,7 +8045,7 @@
         <v>68.550109863281307</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>393</v>
       </c>
@@ -5366,7 +8116,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -5437,7 +8187,7 @@
         <v>70.183181762695298</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -5508,7 +8258,7 @@
         <v>70.258491516113295</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -5579,7 +8329,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>378</v>
       </c>
@@ -5650,7 +8400,7 @@
         <v>72.751701354980497</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>394</v>
       </c>
@@ -5721,7 +8471,7 @@
         <v>73.914360046386705</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -5792,7 +8542,7 @@
         <v>75.181907653808594</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -5863,7 +8613,7 @@
         <v>92.021690368652301</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -5934,7 +8684,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -6005,7 +8755,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>295</v>
       </c>
@@ -6076,7 +8826,7 @@
         <v>92.779525756835895</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>364</v>
       </c>
@@ -6147,7 +8897,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>363</v>
       </c>
@@ -6218,7 +8968,7 @@
         <v>94.716178894042997</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -6289,7 +9039,7 @@
         <v>95.428741455078097</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -6360,7 +9110,7 @@
         <v>95.533538818359403</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -6431,7 +9181,7 @@
         <v>95.628623962402301</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -6502,7 +9252,7 @@
         <v>95.724571228027301</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -6573,7 +9323,7 @@
         <v>95.834556579589801</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -6644,7 +9394,7 @@
         <v>96.3031005859375</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -6715,7 +9465,7 @@
         <v>99.383773803710895</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -6786,7 +9536,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -6857,7 +9607,7 @@
         <v>99.547775268554702</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -6928,7 +9678,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -6999,7 +9749,7 @@
         <v>99.635391235351605</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -7070,7 +9820,7 @@
         <v>99.71</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>299</v>
       </c>
@@ -7141,7 +9891,7 @@
         <v>99.766273498535199</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>325</v>
       </c>
@@ -7212,7 +9962,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -7283,7 +10033,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -7354,7 +10104,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -7425,7 +10175,7 @@
         <v>99.881752014160199</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>284</v>
       </c>
@@ -7496,7 +10246,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -7567,7 +10317,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>311</v>
       </c>
@@ -7638,7 +10388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>313</v>
       </c>
@@ -7709,7 +10459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -7780,7 +10530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7851,7 +10601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>373</v>
       </c>
@@ -7922,7 +10672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -7993,7 +10743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>312</v>
       </c>
@@ -8064,7 +10814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>217</v>
       </c>
@@ -8135,7 +10885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>259</v>
       </c>
@@ -8206,7 +10956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>356</v>
       </c>
@@ -8277,7 +11027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -8348,7 +11098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -8419,7 +11169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>267</v>
       </c>
@@ -8490,7 +11240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -8561,7 +11311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -8632,7 +11382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -8703,7 +11453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -8774,7 +11524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -8845,7 +11595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -8916,7 +11666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -8987,7 +11737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -9058,7 +11808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>216</v>
       </c>
@@ -9129,7 +11879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>365</v>
       </c>
@@ -9200,7 +11950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -9271,7 +12021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -9342,7 +12092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>314</v>
       </c>
@@ -9413,7 +12163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -9484,7 +12234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -9555,7 +12305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -9626,7 +12376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -9697,7 +12447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>64</v>
       </c>
@@ -9768,7 +12518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -9839,7 +12589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -9910,7 +12660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -9981,7 +12731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -10052,7 +12802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -10123,7 +12873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -10194,7 +12944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -10265,7 +13015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>191</v>
       </c>
@@ -10336,7 +13086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>303</v>
       </c>
@@ -10407,7 +13157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>324</v>
       </c>
@@ -10478,7 +13228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>346</v>
       </c>
@@ -10549,7 +13299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>195</v>
       </c>
@@ -10620,7 +13370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>205</v>
       </c>
@@ -10691,7 +13441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -10762,7 +13512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>330</v>
       </c>
@@ -10833,7 +13583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -10904,7 +13654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -10975,7 +13725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -11046,7 +13796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -11117,7 +13867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>193</v>
       </c>
@@ -11188,7 +13938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -11259,7 +14009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -11330,7 +14080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>162</v>
       </c>
@@ -11401,7 +14151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -11472,7 +14222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>178</v>
       </c>
@@ -11543,7 +14293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -11614,7 +14364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>196</v>
       </c>
@@ -11685,7 +14435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -11756,7 +14506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>254</v>
       </c>
@@ -11827,7 +14577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>77</v>
       </c>
@@ -11898,7 +14648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>374</v>
       </c>
@@ -11969,7 +14719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>279</v>
       </c>
@@ -12040,7 +14790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>391</v>
       </c>
@@ -12111,7 +14861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -12182,7 +14932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -12253,7 +15003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -12324,7 +15074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -12395,7 +15145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -12466,7 +15216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>255</v>
       </c>
@@ -12537,7 +15287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -12608,7 +15358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>390</v>
       </c>
@@ -12679,7 +15429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>107</v>
       </c>
@@ -12750,7 +15500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>228</v>
       </c>
@@ -12821,7 +15571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>387</v>
       </c>
@@ -12892,7 +15642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -12963,7 +15713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>335</v>
       </c>
@@ -13034,7 +15784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>219</v>
       </c>
@@ -13105,7 +15855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -13176,7 +15926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>317</v>
       </c>
@@ -13247,7 +15997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -13318,7 +16068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>253</v>
       </c>
@@ -13389,7 +16139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>213</v>
       </c>
@@ -13460,7 +16210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -13531,7 +16281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -13602,7 +16352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>385</v>
       </c>
@@ -13673,7 +16423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>302</v>
       </c>
@@ -13744,7 +16494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -13815,7 +16565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>102</v>
       </c>
@@ -13886,7 +16636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>366</v>
       </c>
@@ -13957,7 +16707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>377</v>
       </c>
@@ -14028,7 +16778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>44</v>
       </c>
@@ -14099,7 +16849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>223</v>
       </c>
@@ -14170,7 +16920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>300</v>
       </c>
@@ -14241,7 +16991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>334</v>
       </c>
@@ -14312,7 +17062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>296</v>
       </c>
@@ -14383,7 +17133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -14454,7 +17204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>240</v>
       </c>
@@ -14525,7 +17275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>251</v>
       </c>
@@ -14596,7 +17346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -14667,7 +17417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -14738,7 +17488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>199</v>
       </c>
@@ -14809,7 +17559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>194</v>
       </c>
@@ -14880,7 +17630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>49</v>
       </c>
@@ -14951,7 +17701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -15022,7 +17772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>43</v>
       </c>
@@ -15093,7 +17843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>105</v>
       </c>
@@ -15164,7 +17914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>229</v>
       </c>
@@ -15235,7 +17985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>25</v>
       </c>
@@ -15306,7 +18056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -15377,7 +18127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -15448,7 +18198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>225</v>
       </c>
@@ -15519,7 +18269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>337</v>
       </c>
@@ -15590,7 +18340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -15661,7 +18411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>342</v>
       </c>
@@ -15732,7 +18482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>234</v>
       </c>
@@ -15803,7 +18553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>238</v>
       </c>
@@ -15874,7 +18624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -15945,7 +18695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -16016,7 +18766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>231</v>
       </c>
@@ -16098,44 +18848,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69913F47-86D5-0B4D-AB9C-106B5055315C}">
+  <dimension ref="A1:W18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U1" t="s">
+        <v>212</v>
+      </c>
+      <c r="V1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2">
+        <v>29.2042427062988</v>
+      </c>
+      <c r="E2">
+        <v>30.301435470581101</v>
+      </c>
+      <c r="F2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G2">
+        <v>32.469783782958999</v>
+      </c>
+      <c r="H2">
+        <v>33.538585662841797</v>
+      </c>
+      <c r="I2">
+        <v>34.5957221984863</v>
+      </c>
+      <c r="J2">
+        <v>35.643730163574197</v>
+      </c>
+      <c r="K2">
+        <v>36.688686370849602</v>
+      </c>
+      <c r="L2">
+        <v>37.736824035644503</v>
+      </c>
+      <c r="M2">
+        <v>38.794387817382798</v>
+      </c>
+      <c r="N2">
+        <v>39.867607116699197</v>
+      </c>
+      <c r="O2">
+        <v>40.962718963622997</v>
+      </c>
+      <c r="P2">
+        <v>42.084251403808601</v>
+      </c>
+      <c r="Q2">
+        <v>43.229896545410199</v>
+      </c>
+      <c r="R2">
+        <v>44.395633697509801</v>
+      </c>
+      <c r="S2">
+        <v>45.577445983886697</v>
+      </c>
+      <c r="T2">
+        <v>46.771312713622997</v>
+      </c>
+      <c r="U2">
+        <v>47.973213195800803</v>
+      </c>
+      <c r="V2">
+        <v>49.1791381835938</v>
+      </c>
+      <c r="W2">
+        <v>50.385730743408203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3">
+        <v>2.4396891593933101</v>
+      </c>
+      <c r="E3">
+        <v>2.8013172149658199</v>
+      </c>
+      <c r="F3">
+        <v>3.1546571254730198</v>
+      </c>
+      <c r="G3">
+        <v>3.4985325336456299</v>
+      </c>
+      <c r="H3">
+        <v>3.8317673206329301</v>
+      </c>
+      <c r="I3">
+        <v>3.2073170731707301</v>
+      </c>
+      <c r="J3">
+        <v>2.66</v>
+      </c>
+      <c r="K3">
+        <v>4.77516794204712</v>
+      </c>
+      <c r="L3">
+        <v>4.8</v>
+      </c>
+      <c r="M3">
+        <v>5.4097371101379403</v>
+      </c>
+      <c r="N3">
+        <v>5.3</v>
+      </c>
+      <c r="O3">
+        <v>6.1069364547729501</v>
+      </c>
+      <c r="P3">
+        <v>6.5</v>
+      </c>
+      <c r="Q3">
+        <v>6.9</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>8.4030895233154297</v>
+      </c>
+      <c r="T3">
+        <v>9.2517995834350604</v>
+      </c>
+      <c r="U3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V3">
+        <v>10.598614692688001</v>
+      </c>
+      <c r="W3">
+        <v>11.0647974014282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M10" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M10:S18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460596BC-2D51-4ADE-9401-FC3717B4C66D}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>384</v>
       </c>
@@ -16220,7 +19291,7 @@
         <v>2019 [YR2019]</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>402</v>
       </c>
@@ -16305,12 +19376,12 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>404</v>
       </c>
@@ -16319,7 +19390,7 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>405</v>
       </c>
@@ -16328,15 +19399,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>404</v>
       </c>
@@ -16345,7 +19416,7 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>406</v>
       </c>
@@ -16355,20 +19426,20 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>384</v>
       </c>
@@ -16376,7 +19447,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -16384,7 +19455,7 @@
         <v>6.7205352783203098</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -16392,7 +19463,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -16400,7 +19471,7 @@
         <v>11.0647974014282</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>290</v>
       </c>
@@ -16408,7 +19479,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -16416,7 +19487,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -16424,7 +19495,7 @@
         <v>18.379152297973601</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -16432,7 +19503,7 @@
         <v>18.774724960327099</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -16440,7 +19511,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>380</v>
       </c>
@@ -16448,7 +19519,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -16461,4 +19532,410 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C748F4-D67E-134E-A011-EA5748D825BC}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U1" t="s">
+        <v>212</v>
+      </c>
+      <c r="V1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>16</v>
+      </c>
+      <c r="T2">
+        <v>17</v>
+      </c>
+      <c r="U2">
+        <v>18</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3">
+        <v>2.4396891593933101</v>
+      </c>
+      <c r="E3">
+        <v>2.8013172149658199</v>
+      </c>
+      <c r="F3">
+        <v>3.1546571254730198</v>
+      </c>
+      <c r="G3">
+        <v>3.4985325336456299</v>
+      </c>
+      <c r="H3">
+        <v>3.8317673206329301</v>
+      </c>
+      <c r="I3">
+        <v>3.2073170731707301</v>
+      </c>
+      <c r="J3">
+        <v>2.66</v>
+      </c>
+      <c r="K3">
+        <v>4.77516794204712</v>
+      </c>
+      <c r="L3">
+        <v>4.8</v>
+      </c>
+      <c r="M3">
+        <v>5.4097371101379403</v>
+      </c>
+      <c r="N3">
+        <v>5.3</v>
+      </c>
+      <c r="O3">
+        <v>6.1069364547729501</v>
+      </c>
+      <c r="P3">
+        <v>6.5</v>
+      </c>
+      <c r="Q3">
+        <v>6.9</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>8.4030895233154297</v>
+      </c>
+      <c r="T3">
+        <v>9.2517995834350604</v>
+      </c>
+      <c r="U3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V3">
+        <v>10.598614692688001</v>
+      </c>
+      <c r="W3">
+        <v>11.0647974014282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M10" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="21" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N21" t="s">
+        <v>414</v>
+      </c>
+      <c r="O21" t="s">
+        <v>418</v>
+      </c>
+      <c r="P21">
+        <v>2020</v>
+      </c>
+      <c r="Q21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>412</v>
+      </c>
+      <c r="N22">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>413</v>
+      </c>
+      <c r="N23">
+        <v>1.1928000000000001</v>
+      </c>
+      <c r="P23">
+        <f>$N$22*P22+$N$23</f>
+        <v>10.5084</v>
+      </c>
+      <c r="Q23">
+        <f>$N$22*Q22+$N$23</f>
+        <v>10.952</v>
+      </c>
+    </row>
+    <row r="25" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>415</v>
+      </c>
+      <c r="N25" t="s">
+        <v>416</v>
+      </c>
+      <c r="O25" t="s">
+        <v>417</v>
+      </c>
+      <c r="P25">
+        <v>2020</v>
+      </c>
+      <c r="Q25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>412</v>
+      </c>
+      <c r="N26">
+        <v>2.3001999999999998</v>
+      </c>
+      <c r="P26">
+        <v>21</v>
+      </c>
+      <c r="Q26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>413</v>
+      </c>
+      <c r="N27">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="P27">
+        <f>$N$26*EXP($N$27*P26)</f>
+        <v>12.034723251633149</v>
+      </c>
+      <c r="Q27">
+        <f>$N$26*EXP($N$27*Q26)</f>
+        <v>13.021424972397165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M10:S18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>